--- a/ces/data/总体体质评估表+原始数据2 (1).xlsx
+++ b/ces/data/总体体质评估表+原始数据2 (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="2920" yWindow="1480" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="3" r:id="rId1"/>
@@ -19,862 +19,874 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="227">
+  <si>
+    <t>CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYLK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTN3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs2700352</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs28497577</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1800629</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TNF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs4880</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADRB2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPARGC1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COL5A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CILP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs2073711</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMP3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPARG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs662799</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APOA2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APOA5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1801282</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs9939609</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1800588</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIPC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1137101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs5082</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLC30A8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COL1A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1800012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs591058</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发力好</t>
+  </si>
+  <si>
+    <t>爆发力差</t>
+  </si>
+  <si>
+    <t>耐力好</t>
+  </si>
+  <si>
+    <t>爆发力一般</t>
+  </si>
+  <si>
+    <t>耐力差</t>
+  </si>
+  <si>
+    <t>耐力一般</t>
+  </si>
+  <si>
+    <t>运动恢复能力差</t>
+  </si>
+  <si>
+    <t>运动恢复能力一般</t>
+  </si>
+  <si>
+    <t>运动恢复能力好</t>
+  </si>
+  <si>
+    <t>运动损伤的恢复能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复能力得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发力
+得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力
+得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧带、关节损伤风险得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧带、关节损伤风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧带、关节损伤风险大</t>
+  </si>
+  <si>
+    <t>韧带、关节损伤风险小</t>
+  </si>
+  <si>
+    <t>肥胖风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥胖风险得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥胖风险大</t>
+  </si>
+  <si>
+    <t>肥胖风险一般</t>
+  </si>
+  <si>
+    <t>肥胖风险小</t>
+  </si>
+  <si>
+    <t>rs8192678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1815739</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYLK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTN3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1815739</t>
+  </si>
+  <si>
+    <t>ADRB2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1042713</t>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧带、关节损伤风险大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1799865</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLC30A8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs13266634</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC/CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC/CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC/CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复能力得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复能力得分（百分制）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动损伤风险得分（百分制）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs12722</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥胖风险得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥胖风险得分（百分制）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动减脂敏感度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动减脂敏感度（百分制）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APOA5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs662799</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs9939609</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1042713</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1815739</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1799945</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs12722</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1799865</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs13266634</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMP3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT/CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不相关</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>基因</t>
+  </si>
+  <si>
+    <t>位点</t>
+  </si>
+  <si>
+    <t>基因型</t>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧带、关节损伤风险一般</t>
+  </si>
+  <si>
+    <t>COL12A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rs970547 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧带、关节损伤风险大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧带、关节损伤风险很大</t>
+  </si>
+  <si>
+    <t>此结果仅针对女性有效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRHR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs699</t>
+  </si>
+  <si>
+    <t>rs16892496</t>
+  </si>
+  <si>
+    <t>GG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPARD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs2267668</t>
+  </si>
+  <si>
+    <t>GA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs2016520</t>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BDKRB2 </t>
+  </si>
+  <si>
+    <t>rs1799722</t>
+  </si>
+  <si>
+    <t>CRP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1205</t>
+  </si>
+  <si>
+    <t>GT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMP12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMP12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APOE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs429358</t>
+  </si>
+  <si>
+    <t>运动减脂敏感性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动减肥敏感性得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动减脂敏感性强</t>
+  </si>
+  <si>
+    <t>运动减脂敏感性一般</t>
+  </si>
+  <si>
+    <t>运动减脂敏感性差</t>
+  </si>
+  <si>
+    <t>恢复能力总分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发力总分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs7412</t>
+  </si>
+  <si>
+    <t>rs7412</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力总分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥胖风险总分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动减脂敏感性总分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRHR</t>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA+CA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发力国内排名（%）</t>
+  </si>
+  <si>
+    <t>爆发力得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发力得分（百分制）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力得分
+（百分制）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力国内排名（%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复能力国内排名（%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs591058</t>
+  </si>
+  <si>
+    <t>CT/CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC/TC/TT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC/TT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性运动损伤风险得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性韧带、关节损伤风险总分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性运动损伤风险得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GG/AG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA/TA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动损伤风险排名（%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥胖风险排名（%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性韧带、关节损伤风险总分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs12722</t>
+  </si>
+  <si>
+    <t>rs970547</t>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>CT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MYLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CC</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基因型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTN3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs2700352</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs28497577</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1800629</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TNF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs4880</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOD2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADRB2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPARGC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COL5A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CILP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs2073711</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMP3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPARG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs662799</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APOA2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APOA5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1801282</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs9939609</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1800588</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1137101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs5082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLC30A8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COL1A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1800012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs591058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆发力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆发力好</t>
-  </si>
-  <si>
-    <t>爆发力差</t>
-  </si>
-  <si>
-    <t>耐力好</t>
-  </si>
-  <si>
-    <t>爆发力一般</t>
-  </si>
-  <si>
-    <t>耐力差</t>
-  </si>
-  <si>
-    <t>耐力一般</t>
-  </si>
-  <si>
-    <t>运动恢复能力差</t>
-  </si>
-  <si>
-    <t>运动恢复能力一般</t>
-  </si>
-  <si>
-    <t>运动恢复能力好</t>
-  </si>
-  <si>
-    <t>运动损伤的恢复能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复能力得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆发力
-得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力
-得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧带、关节损伤风险得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧带、关节损伤风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧带、关节损伤风险大</t>
-  </si>
-  <si>
-    <t>韧带、关节损伤风险小</t>
-  </si>
-  <si>
-    <t>肥胖风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肥胖风险得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肥胖风险大</t>
-  </si>
-  <si>
-    <t>肥胖风险一般</t>
-  </si>
-  <si>
-    <t>肥胖风险小</t>
-  </si>
-  <si>
-    <t>rs8192678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1815739</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HFE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MYLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTN3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1815739</t>
-  </si>
-  <si>
-    <t>ADRB2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1042713</t>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧带、关节损伤风险大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1799865</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLC30A8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs13266634</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC/CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC/CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC/CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复能力得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复能力得分（百分制）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动损伤风险得分（百分制）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs12722</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肥胖风险得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肥胖风险得分（百分制）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动减脂敏感度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动减脂敏感度（百分制）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APOA5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs662799</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs9939609</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1042713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1815739</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1799945</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs12722</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1799865</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs13266634</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMP3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT/CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不相关</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>基因</t>
-  </si>
-  <si>
-    <t>位点</t>
-  </si>
-  <si>
-    <t>基因型</t>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧带、关节损伤风险一般</t>
-  </si>
-  <si>
-    <t>COL12A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">rs970547 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧带、关节损伤风险大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧带、关节损伤风险很大</t>
-  </si>
-  <si>
-    <t>此结果仅针对女性有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRHR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs699</t>
-  </si>
-  <si>
-    <t>rs16892496</t>
-  </si>
-  <si>
-    <t>GG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>TT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>TC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs2267668</t>
-  </si>
-  <si>
-    <t>GA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs2016520</t>
-  </si>
-  <si>
-    <t>TT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BDKRB2 </t>
-  </si>
-  <si>
-    <t>rs1799722</t>
-  </si>
-  <si>
-    <t>CRP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1205</t>
-  </si>
-  <si>
-    <t>GT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMP12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMP12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APOE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs429358</t>
-  </si>
-  <si>
-    <t>运动减脂敏感性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动减肥敏感性得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动减脂敏感性强</t>
-  </si>
-  <si>
-    <t>运动减脂敏感性一般</t>
-  </si>
-  <si>
-    <t>运动减脂敏感性差</t>
-  </si>
-  <si>
-    <t>恢复能力总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆发力总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs7412</t>
-  </si>
-  <si>
-    <t>rs7412</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肥胖风险总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动减脂敏感性总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRHR</t>
-  </si>
-  <si>
-    <t>CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA+CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆发力国内排名（%）</t>
-  </si>
-  <si>
-    <t>爆发力得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆发力得分（百分制）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力得分
-（百分制）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力国内排名（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复能力国内排名（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs591058</t>
-  </si>
-  <si>
-    <t>CT/CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC/TC/TT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC/TT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女性运动损伤风险得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女性韧带、关节损伤风险总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男性运动损伤风险得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GG/AG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA/TA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动损伤风险排名（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肥胖风险排名（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男性韧带、关节损伤风险总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs12722</t>
-  </si>
-  <si>
-    <t>rs970547</t>
   </si>
 </sst>
 </file>
@@ -885,12 +897,20 @@
     <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -930,7 +950,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -959,6 +979,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1062,630 +1088,630 @@
   </borders>
   <cellStyleXfs count="623">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1696,70 +1722,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1778,70 +1804,70 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1850,49 +1876,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2849,10 +2881,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A90" sqref="A90"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="D27" sqref="D27:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3387,7 +3419,7 @@
         <v>67</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>47</v>
@@ -3415,7 +3447,7 @@
         <v>67</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>50</v>
@@ -3443,7 +3475,7 @@
         <v>67</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>49</v>
@@ -3638,8 +3670,8 @@
       <c r="C27" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>1</v>
+      <c r="D27" s="11" t="s">
+        <v>224</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>47</v>
@@ -3666,8 +3698,8 @@
       <c r="C28" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>158</v>
+      <c r="D28" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>50</v>
@@ -3694,8 +3726,8 @@
       <c r="C29" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>5</v>
+      <c r="D29" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>49</v>
@@ -4857,7 +4889,7 @@
       <c r="G68" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H68" s="68" t="s">
+      <c r="H68" s="67" t="s">
         <v>141</v>
       </c>
       <c r="I68" s="36"/>
@@ -4888,7 +4920,7 @@
       <c r="G69" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H69" s="68"/>
+      <c r="H69" s="67"/>
       <c r="I69" s="36"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
@@ -4917,7 +4949,7 @@
       <c r="G70" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H70" s="68"/>
+      <c r="H70" s="67"/>
       <c r="I70" s="36"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
@@ -4946,7 +4978,7 @@
       <c r="G71" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H71" s="68"/>
+      <c r="H71" s="67"/>
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
@@ -4975,7 +5007,7 @@
       <c r="G72" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H72" s="68"/>
+      <c r="H72" s="67"/>
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
@@ -5004,7 +5036,7 @@
       <c r="G73" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H73" s="68"/>
+      <c r="H73" s="67"/>
       <c r="I73" s="36"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
@@ -5033,7 +5065,7 @@
       <c r="G74" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H74" s="68"/>
+      <c r="H74" s="67"/>
       <c r="I74" s="36"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
@@ -5062,7 +5094,7 @@
       <c r="G75" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H75" s="68"/>
+      <c r="H75" s="67"/>
       <c r="I75" s="36"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
@@ -5091,7 +5123,7 @@
       <c r="G76" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H76" s="68"/>
+      <c r="H76" s="67"/>
       <c r="I76" s="36"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
@@ -5120,7 +5152,7 @@
       <c r="G77" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H77" s="68"/>
+      <c r="H77" s="67"/>
       <c r="I77" s="36"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
@@ -5149,7 +5181,7 @@
       <c r="G78" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H78" s="68"/>
+      <c r="H78" s="67"/>
       <c r="I78" s="36"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
@@ -5178,7 +5210,7 @@
       <c r="G79" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H79" s="68"/>
+      <c r="H79" s="67"/>
       <c r="I79" s="36"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
@@ -5207,7 +5239,7 @@
       <c r="G80" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H80" s="68"/>
+      <c r="H80" s="67"/>
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
@@ -5236,7 +5268,7 @@
       <c r="G81" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H81" s="68"/>
+      <c r="H81" s="67"/>
       <c r="I81" s="36"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
@@ -5265,7 +5297,7 @@
       <c r="G82" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H82" s="68"/>
+      <c r="H82" s="67"/>
       <c r="I82" s="36"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
@@ -5294,7 +5326,7 @@
       <c r="G83" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H83" s="68"/>
+      <c r="H83" s="67"/>
       <c r="I83" s="36"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
@@ -5323,7 +5355,7 @@
       <c r="G84" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H84" s="68"/>
+      <c r="H84" s="67"/>
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
@@ -5352,7 +5384,7 @@
       <c r="G85" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H85" s="68"/>
+      <c r="H85" s="67"/>
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
@@ -5457,7 +5489,7 @@
         <v>42</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>60</v>
@@ -5486,7 +5518,7 @@
         <v>42</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>61</v>
@@ -5515,7 +5547,7 @@
         <v>42</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>61</v>
@@ -5924,8 +5956,8 @@
       <c r="C105" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D105" s="11" t="s">
-        <v>3</v>
+      <c r="D105" s="65" t="s">
+        <v>152</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>60</v>
@@ -5953,8 +5985,8 @@
       <c r="C106" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D106" s="11" t="s">
-        <v>22</v>
+      <c r="D106" s="66" t="s">
+        <v>157</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>61</v>
@@ -5982,8 +6014,8 @@
       <c r="C107" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D107" s="11" t="s">
-        <v>14</v>
+      <c r="D107" s="66" t="s">
+        <v>154</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>61</v>
@@ -6764,10 +6796,10 @@
       <c r="G130" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H130" s="71" t="s">
+      <c r="H130" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="I130" s="69">
+      <c r="I130" s="71">
         <v>2</v>
       </c>
       <c r="J130" s="36"/>
@@ -6798,8 +6830,8 @@
       <c r="G131" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H131" s="72"/>
-      <c r="I131" s="74"/>
+      <c r="H131" s="74"/>
+      <c r="I131" s="76"/>
       <c r="J131" s="36"/>
       <c r="K131" s="36"/>
       <c r="L131" s="36"/>
@@ -6828,10 +6860,10 @@
       <c r="G132" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H132" s="71" t="s">
+      <c r="H132" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="I132" s="69">
+      <c r="I132" s="71">
         <v>2</v>
       </c>
       <c r="J132" s="36"/>
@@ -6862,8 +6894,8 @@
       <c r="G133" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H133" s="72"/>
-      <c r="I133" s="74"/>
+      <c r="H133" s="74"/>
+      <c r="I133" s="76"/>
       <c r="J133" s="36"/>
       <c r="K133" s="36"/>
       <c r="L133" s="36"/>
@@ -6892,10 +6924,10 @@
       <c r="G134" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H134" s="71" t="s">
+      <c r="H134" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="I134" s="69">
+      <c r="I134" s="71">
         <v>2</v>
       </c>
       <c r="J134" s="36"/>
@@ -6926,8 +6958,8 @@
       <c r="G135" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H135" s="72"/>
-      <c r="I135" s="74"/>
+      <c r="H135" s="74"/>
+      <c r="I135" s="76"/>
       <c r="J135" s="36"/>
       <c r="K135" s="36"/>
       <c r="L135" s="36"/>
@@ -6956,10 +6988,10 @@
       <c r="G136" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H136" s="71" t="s">
+      <c r="H136" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="I136" s="69">
+      <c r="I136" s="71">
         <v>1</v>
       </c>
       <c r="J136" s="36"/>
@@ -6990,8 +7022,8 @@
       <c r="G137" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H137" s="72"/>
-      <c r="I137" s="74"/>
+      <c r="H137" s="74"/>
+      <c r="I137" s="76"/>
       <c r="J137" s="36"/>
       <c r="K137" s="36"/>
       <c r="L137" s="36"/>
@@ -7020,10 +7052,10 @@
       <c r="G138" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H138" s="71" t="s">
+      <c r="H138" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="I138" s="69">
+      <c r="I138" s="71">
         <v>1</v>
       </c>
       <c r="J138" s="36"/>
@@ -7054,8 +7086,8 @@
       <c r="G139" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H139" s="72"/>
-      <c r="I139" s="74"/>
+      <c r="H139" s="74"/>
+      <c r="I139" s="76"/>
       <c r="J139" s="36"/>
       <c r="K139" s="36"/>
       <c r="L139" s="36"/>
@@ -7084,10 +7116,10 @@
       <c r="G140" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H140" s="71" t="s">
+      <c r="H140" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="I140" s="69">
+      <c r="I140" s="71">
         <v>0</v>
       </c>
       <c r="J140" s="36"/>
@@ -7118,8 +7150,8 @@
       <c r="G141" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H141" s="73"/>
-      <c r="I141" s="70"/>
+      <c r="H141" s="75"/>
+      <c r="I141" s="72"/>
       <c r="J141" s="36"/>
       <c r="K141" s="36"/>
       <c r="L141" s="36"/>
@@ -7133,11 +7165,11 @@
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="65" t="s">
+      <c r="G142" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="H142" s="66"/>
-      <c r="I142" s="67"/>
+      <c r="H142" s="69"/>
+      <c r="I142" s="70"/>
       <c r="J142" s="31" t="s">
         <v>195</v>
       </c>
@@ -7317,11 +7349,11 @@
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
-      <c r="G149" s="65" t="s">
+      <c r="G149" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="H149" s="66"/>
-      <c r="I149" s="67"/>
+      <c r="H149" s="69"/>
+      <c r="I149" s="70"/>
       <c r="J149" s="8" t="s">
         <v>86</v>
       </c>
@@ -7576,11 +7608,11 @@
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
-      <c r="G159" s="65" t="s">
+      <c r="G159" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="H159" s="66"/>
-      <c r="I159" s="67"/>
+      <c r="H159" s="69"/>
+      <c r="I159" s="70"/>
       <c r="J159" s="8" t="s">
         <v>96</v>
       </c>
@@ -7746,11 +7778,11 @@
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
-      <c r="G166" s="65" t="s">
+      <c r="G166" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="H166" s="66"/>
-      <c r="I166" s="67"/>
+      <c r="H166" s="69"/>
+      <c r="I166" s="70"/>
       <c r="J166" s="22" t="s">
         <v>204</v>
       </c>
@@ -7864,11 +7896,11 @@
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
-      <c r="G170" s="65" t="s">
+      <c r="G170" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="H170" s="66"/>
-      <c r="I170" s="67"/>
+      <c r="H170" s="69"/>
+      <c r="I170" s="70"/>
       <c r="J170" s="8" t="s">
         <v>100</v>
       </c>
@@ -8003,8 +8035,6 @@
     <row r="175" spans="1:13" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="I138:I139"/>
     <mergeCell ref="G159:I159"/>
     <mergeCell ref="G166:I166"/>
     <mergeCell ref="G170:I170"/>
@@ -8021,8 +8051,10 @@
     <mergeCell ref="I130:I131"/>
     <mergeCell ref="I132:I133"/>
     <mergeCell ref="I134:I135"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="I138:I139"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10">
       <formula1>"爆发力好,爆发力一般,爆发力差"</formula1>
